--- a/excel/policy/old_car_province.xlsx
+++ b/excel/policy/old_car_province.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\web-heat-map\public\excel\policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7AFFF9-6D12-42E7-9CE6-B23DF498D76D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="-13460" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="11745" yWindow="-13455" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2. 淘汰黄标车和老旧车" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,118 +33,118 @@
     <t>地区</t>
   </si>
   <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>内蒙古自治区</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>吉林省</t>
-  </si>
-  <si>
-    <t>黑龙江省</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
     <t>13.04 </t>
   </si>
   <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
     <t>9.24 </t>
   </si>
   <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广西壮族自治区</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>贵州省</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>西藏自治区</t>
-  </si>
-  <si>
-    <t>陕西省</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>青海省</t>
-  </si>
-  <si>
-    <t>宁夏回族自治区</t>
-  </si>
-  <si>
     <t>4.7233 </t>
   </si>
   <si>
-    <t>新疆维吾尔自治区</t>
-  </si>
-  <si>
     <t>LATB</t>
   </si>
   <si>
     <t>LNGB</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>新疆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,14 +523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -559,15 +555,15 @@
         <v>2017</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0.51559999999999995</v>
@@ -587,7 +583,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>4.3</v>
@@ -607,7 +603,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3.859</v>
@@ -627,7 +623,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2.7686999999999999</v>
@@ -647,7 +643,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>4.16</v>
@@ -667,7 +663,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2.3056999999999999</v>
@@ -687,7 +683,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>5.0580999999999996</v>
@@ -707,7 +703,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>6.2576000000000001</v>
@@ -727,7 +723,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1.1000000000000001</v>
@@ -747,7 +743,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>8.9943000000000008</v>
@@ -767,7 +763,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>5.7900999999999998</v>
@@ -787,7 +783,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>5.0458999999999996</v>
@@ -796,7 +792,7 @@
         <v>21.98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
         <v>31.728359139999998</v>
@@ -874,7 +870,7 @@
         <v>62.3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5">
         <v>34.765382459999998</v>
@@ -885,7 +881,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>2.4788000000000001</v>
@@ -905,7 +901,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>2.4540999999999999</v>
@@ -925,7 +921,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>14.1569</v>
@@ -945,7 +941,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>2.8</v>
@@ -965,7 +961,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0.81669999999999998</v>
@@ -985,7 +981,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>0.64</v>
@@ -1005,7 +1001,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>0.93300000000000005</v>
@@ -1025,7 +1021,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>1.4811000000000001</v>
@@ -1045,7 +1041,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>4.6239999999999997</v>
@@ -1065,7 +1061,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>0.24329999999999999</v>
@@ -1085,7 +1081,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>2.3191000000000002</v>
@@ -1105,7 +1101,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>1.0949</v>
@@ -1123,7 +1119,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>0.55120000000000002</v>
@@ -1143,7 +1139,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1.8250999999999999</v>
@@ -1152,7 +1148,7 @@
         <v>3.6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5">
         <v>38.47119017</v>
@@ -1163,7 +1159,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>0.35720000000000002</v>
